--- a/Occurrence_Report_July_2016_KS.xlsx
+++ b/Occurrence_Report_July_2016_KS.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$S$1:$S$15</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="100">
   <si>
     <t xml:space="preserve">PUNE SATARA TOLL ROAD PRIVATE LIMITED ,TOLL PLAZA  AT KM No.819+240 </t>
   </si>
@@ -289,13 +290,52 @@
   </si>
   <si>
     <t xml:space="preserve">Patrolling, Crane&amp; Ambulance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks / </t>
+  </si>
+  <si>
+    <t>827+350 LHS</t>
+  </si>
+  <si>
+    <t>827+500 LHS</t>
+  </si>
+  <si>
+    <t>823+300 LHS</t>
+  </si>
+  <si>
+    <t>817+350 LHS</t>
+  </si>
+  <si>
+    <t>836+200 RHS</t>
+  </si>
+  <si>
+    <t>849+100 LHS</t>
+  </si>
+  <si>
+    <t>845+600 LHS</t>
+  </si>
+  <si>
+    <t>830+200 LHS</t>
+  </si>
+  <si>
+    <t>808+750 LHS</t>
+  </si>
+  <si>
+    <t>830+600 RHS</t>
+  </si>
+  <si>
+    <t>Accident Location-LHS</t>
+  </si>
+  <si>
+    <t>Accident Location-RHS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -603,6 +643,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -632,6 +675,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,6 +688,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -685,7 +742,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -717,9 +774,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -751,6 +826,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -926,17 +1019,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="E9" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
@@ -950,83 +1043,83 @@
     <col min="19" max="19" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="43"/>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A2" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="45" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="44"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="47"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="39" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="48"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -1053,29 +1146,29 @@
       <c r="K4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39" t="s">
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="39" t="s">
+      <c r="S4" s="40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="3" customFormat="1" ht="45">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="39"/>
+    <row r="5" spans="1:19" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1100,7 +1193,7 @@
       <c r="K5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="39"/>
+      <c r="L5" s="40"/>
       <c r="M5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1113,11 +1206,11 @@
       <c r="P5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-    </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" ht="64.5" customHeight="1">
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+    </row>
+    <row r="6" spans="1:19" s="2" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>1</v>
       </c>
@@ -1176,7 +1269,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" ht="64.5" customHeight="1">
+    <row r="7" spans="1:19" s="2" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>2</v>
       </c>
@@ -1235,7 +1328,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" ht="64.5" customHeight="1">
+    <row r="8" spans="1:19" s="2" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>3</v>
       </c>
@@ -1294,7 +1387,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" ht="64.5" customHeight="1">
+    <row r="9" spans="1:19" s="2" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>4</v>
       </c>
@@ -1353,7 +1446,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="29" customFormat="1" ht="64.5" customHeight="1">
+    <row r="10" spans="1:19" s="29" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>5</v>
       </c>
@@ -1412,7 +1505,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="29" customFormat="1" ht="64.5" customHeight="1">
+    <row r="11" spans="1:19" s="29" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>6</v>
       </c>
@@ -1471,7 +1564,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="29" customFormat="1" ht="64.5" customHeight="1">
+    <row r="12" spans="1:19" s="29" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>7</v>
       </c>
@@ -1530,7 +1623,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="29" customFormat="1" ht="64.5" customHeight="1">
+    <row r="13" spans="1:19" s="29" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>8</v>
       </c>
@@ -1589,7 +1682,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="29" customFormat="1" ht="64.5" customHeight="1">
+    <row r="14" spans="1:19" s="29" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>9</v>
       </c>
@@ -1648,7 +1741,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="29" customFormat="1" ht="64.5" customHeight="1">
+    <row r="15" spans="1:19" s="29" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>10</v>
       </c>
@@ -1707,7 +1800,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" ht="64.5" customHeight="1">
+    <row r="16" spans="1:19" s="2" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1745,11 +1838,11 @@
       <c r="R16" s="7"/>
       <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="40" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
@@ -1768,7 +1861,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
@@ -1793,7 +1886,7 @@
       <c r="R18" s="14"/>
       <c r="S18" s="15"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>6</v>
       </c>
@@ -1818,7 +1911,7 @@
       <c r="R19" s="14"/>
       <c r="S19" s="15"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>7</v>
       </c>
@@ -1843,7 +1936,7 @@
       <c r="R20" s="14"/>
       <c r="S20" s="15"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>8</v>
       </c>
@@ -1868,7 +1961,7 @@
       <c r="R21" s="14"/>
       <c r="S21" s="15"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13" t="s">
         <v>36</v>
@@ -1891,7 +1984,7 @@
       <c r="R22" s="14"/>
       <c r="S22" s="15"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>9</v>
       </c>
@@ -1916,7 +2009,7 @@
       <c r="R23" s="14"/>
       <c r="S23" s="15"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>38</v>
       </c>
@@ -1941,7 +2034,7 @@
       <c r="R24" s="14"/>
       <c r="S24" s="18"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>11</v>
       </c>
@@ -1966,7 +2059,7 @@
       <c r="R25" s="14"/>
       <c r="S25" s="18"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>12</v>
       </c>
@@ -1991,7 +2084,7 @@
       <c r="R26" s="14"/>
       <c r="S26" s="18"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -2012,7 +2105,7 @@
       <c r="R27" s="18"/>
       <c r="S27" s="18"/>
     </row>
-    <row r="29" spans="1:19" ht="56.25">
+    <row r="29" spans="1:19" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B29" s="23" t="s">
         <v>42</v>
       </c>
@@ -2044,7 +2137,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="22.5">
+    <row r="30" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
         <v>52</v>
       </c>
@@ -2107,24 +2200,706 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="30">
+        <v>0.64722222222222225</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="31">
+        <v>3</v>
+      </c>
+      <c r="E2" s="31">
+        <v>2</v>
+      </c>
+      <c r="F2" s="31">
+        <v>3</v>
+      </c>
+      <c r="G2" s="31">
+        <v>4</v>
+      </c>
+      <c r="H2" s="31">
+        <v>1</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="31">
+        <v>4</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="31">
+        <v>1</v>
+      </c>
+      <c r="N2" s="31">
+        <v>1</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="31">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="T2" s="36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="30">
+        <v>0.71875</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="31">
+        <v>3</v>
+      </c>
+      <c r="E3" s="31">
+        <v>1</v>
+      </c>
+      <c r="F3" s="31">
+        <v>2</v>
+      </c>
+      <c r="G3" s="31">
+        <v>4</v>
+      </c>
+      <c r="H3" s="31">
+        <v>1</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="31">
+        <v>4</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="31">
+        <v>1</v>
+      </c>
+      <c r="M3" s="31">
+        <v>1</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="31">
+        <v>2</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="T3" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="30">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="31">
+        <v>3</v>
+      </c>
+      <c r="E4" s="31">
+        <v>2</v>
+      </c>
+      <c r="F4" s="31">
+        <v>3</v>
+      </c>
+      <c r="G4" s="31">
+        <v>4</v>
+      </c>
+      <c r="H4" s="31">
+        <v>1</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="31">
+        <v>4</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="31">
+        <v>1</v>
+      </c>
+      <c r="N4" s="31">
+        <v>1</v>
+      </c>
+      <c r="O4" s="31">
+        <v>2</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="T4" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="25">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="31">
+        <v>3</v>
+      </c>
+      <c r="E5" s="31">
+        <v>2</v>
+      </c>
+      <c r="F5" s="31">
+        <v>3</v>
+      </c>
+      <c r="G5" s="31">
+        <v>4</v>
+      </c>
+      <c r="H5" s="31">
+        <v>1</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="31">
+        <v>1</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="31">
+        <v>1</v>
+      </c>
+      <c r="N5" s="31">
+        <v>1</v>
+      </c>
+      <c r="O5" s="31">
+        <v>2</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="S5" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="T5" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="28">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24">
+        <v>2</v>
+      </c>
+      <c r="F6" s="24">
+        <v>3</v>
+      </c>
+      <c r="G6" s="24">
+        <v>4</v>
+      </c>
+      <c r="H6" s="24">
+        <v>1</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="24">
+        <v>1</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="26">
+        <v>2</v>
+      </c>
+      <c r="O6" s="26">
+        <v>2</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="32">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="24">
+        <v>5</v>
+      </c>
+      <c r="E7" s="24">
+        <v>2</v>
+      </c>
+      <c r="F7" s="24">
+        <v>4</v>
+      </c>
+      <c r="G7" s="24">
+        <v>4</v>
+      </c>
+      <c r="H7" s="24">
+        <v>1</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="24">
+        <v>1</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="34">
+        <v>2</v>
+      </c>
+      <c r="O7" s="34">
+        <v>3</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="R7" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="S7" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="T7" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="25">
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="24">
+        <v>3</v>
+      </c>
+      <c r="E8" s="24">
+        <v>1</v>
+      </c>
+      <c r="F8" s="24">
+        <v>2</v>
+      </c>
+      <c r="G8" s="24">
+        <v>4</v>
+      </c>
+      <c r="H8" s="24">
+        <v>1</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="24">
+        <v>1</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="31">
+        <v>1</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="34">
+        <v>1</v>
+      </c>
+      <c r="O8" s="34">
+        <v>2</v>
+      </c>
+      <c r="P8" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="S8" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="T8" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="28">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="33">
+        <v>6</v>
+      </c>
+      <c r="E9" s="33">
+        <v>2</v>
+      </c>
+      <c r="F9" s="33">
+        <v>3</v>
+      </c>
+      <c r="G9" s="33">
+        <v>4</v>
+      </c>
+      <c r="H9" s="33">
+        <v>1</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="33">
+        <v>1</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="33">
+        <v>1</v>
+      </c>
+      <c r="O9" s="33">
+        <v>1</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="S9" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="T9" s="38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="30">
+        <v>0.87083333333333324</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="31">
+        <v>3</v>
+      </c>
+      <c r="E10" s="31">
+        <v>2</v>
+      </c>
+      <c r="F10" s="31">
+        <v>4</v>
+      </c>
+      <c r="G10" s="31">
+        <v>4</v>
+      </c>
+      <c r="H10" s="31">
+        <v>1</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="31">
+        <v>1</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="31">
+        <v>1</v>
+      </c>
+      <c r="N10" s="31">
+        <v>1</v>
+      </c>
+      <c r="O10" s="31">
+        <v>3</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="S10" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="T10" s="38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="30">
+        <v>0.125</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="31">
+        <v>1</v>
+      </c>
+      <c r="E11" s="31">
+        <v>2</v>
+      </c>
+      <c r="F11" s="31">
+        <v>3</v>
+      </c>
+      <c r="G11" s="31">
+        <v>4</v>
+      </c>
+      <c r="H11" s="31">
+        <v>1</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="31">
+        <v>4</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="31">
+        <v>1</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="31">
+        <v>2</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="S1:S15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
